--- a/Peaks-dataset-article/redes-ensemble/Teste04/content/results/metrics_6_6.xlsx
+++ b/Peaks-dataset-article/redes-ensemble/Teste04/content/results/metrics_6_6.xlsx
@@ -518,331 +518,331 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_2</t>
+          <t>model_6_6_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9782033637479146</v>
+        <v>0.9903580005424704</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8031694930869799</v>
+        <v>0.8332441767762551</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8441457779966794</v>
+        <v>0.8444616104488525</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8162803949078327</v>
+        <v>0.981770729913977</v>
       </c>
       <c r="F2" t="n">
-        <v>0.916795960071662</v>
+        <v>0.9757711777729452</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1457542069819761</v>
+        <v>0.06447609476982623</v>
       </c>
       <c r="H2" t="n">
-        <v>1.316206506048513</v>
+        <v>1.115096957737145</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3822939396092317</v>
+        <v>0.04206056454649965</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1547981466499527</v>
+        <v>0.03555558645151036</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2685460224180388</v>
+        <v>0.03880810764244396</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1966824497205985</v>
+        <v>0.5252843188976969</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3817776931435048</v>
+        <v>0.2539214342465524</v>
       </c>
       <c r="N2" t="n">
-        <v>1.00432329975248</v>
+        <v>1.011019427951462</v>
       </c>
       <c r="O2" t="n">
-        <v>0.398030759929398</v>
+        <v>0.2647313953922595</v>
       </c>
       <c r="P2" t="n">
-        <v>293.8516671795956</v>
+        <v>95.48292149520397</v>
       </c>
       <c r="Q2" t="n">
-        <v>470.5886617854846</v>
+        <v>150.332333614273</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_3</t>
+          <t>model_6_6_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9791549172430783</v>
+        <v>0.9908929887646788</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8031252169629357</v>
+        <v>0.8329126225873644</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8393198469300551</v>
+        <v>0.8263461540775889</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7932804993337235</v>
+        <v>0.9795295701436448</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9119599971430805</v>
+        <v>0.9728774735164591</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1393911643783158</v>
+        <v>0.06089862606452406</v>
       </c>
       <c r="H3" t="n">
-        <v>1.316502580693869</v>
+        <v>1.117314062124923</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3941314386261212</v>
+        <v>0.04695933149523592</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1741773588261842</v>
+        <v>0.03992689422135843</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2841543824225548</v>
+        <v>0.04344304966392244</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1889644160100444</v>
+        <v>0.5084297689924895</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3733512613857302</v>
+        <v>0.2467764698356066</v>
       </c>
       <c r="N3" t="n">
-        <v>1.004134561869142</v>
+        <v>1.010408012840367</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3892455975265764</v>
+        <v>0.2572822550542245</v>
       </c>
       <c r="P3" t="n">
-        <v>293.9409423317807</v>
+        <v>95.59708933007525</v>
       </c>
       <c r="Q3" t="n">
-        <v>470.6779369376698</v>
+        <v>150.4465014491443</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_1</t>
+          <t>model_6_6_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.976939011421733</v>
+        <v>0.9913436524444954</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8029931381409365</v>
+        <v>0.832540391740931</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8497419122439003</v>
+        <v>0.806860676118433</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8413029732050787</v>
+        <v>0.9772466612567058</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9221886054725196</v>
+        <v>0.9698425937070226</v>
       </c>
       <c r="G4" t="n">
-        <v>0.15420893680896</v>
+        <v>0.05788503596247477</v>
       </c>
       <c r="H4" t="n">
-        <v>1.317385792384745</v>
+        <v>1.119803171508989</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3685672135670808</v>
+        <v>0.05222857856527171</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1337146659682159</v>
+        <v>0.04437963225790307</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2511409363914645</v>
+        <v>0.04830411724792496</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2062715275543661</v>
+        <v>0.4924850614365189</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3926944573188677</v>
+        <v>0.240593092092177</v>
       </c>
       <c r="N4" t="n">
-        <v>1.00457408037916</v>
+        <v>1.009892968634862</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4094122733565233</v>
+        <v>0.2508356381189006</v>
       </c>
       <c r="P4" t="n">
-        <v>293.7388937271455</v>
+        <v>95.69859274810027</v>
       </c>
       <c r="Q4" t="n">
-        <v>470.4758883330346</v>
+        <v>150.5480048671693</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_4</t>
+          <t>model_6_6_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9798593225476114</v>
+        <v>0.9917192481342784</v>
       </c>
       <c r="C5" t="n">
-        <v>0.802922506907694</v>
+        <v>0.832134128086515</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8351052544864662</v>
+        <v>0.786236393712094</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7722466043840475</v>
+        <v>0.9749353534238897</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9076129536874196</v>
+        <v>0.9666943032175221</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1346808028634145</v>
+        <v>0.05537342585543725</v>
       </c>
       <c r="H5" t="n">
-        <v>1.317858103766665</v>
+        <v>1.122519858436742</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4044693885924212</v>
+        <v>0.05780578020584675</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1919000616014605</v>
+        <v>0.04888776149609763</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2981847255441337</v>
+        <v>0.05334683847726258</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1827138690867924</v>
+        <v>0.4773954401886211</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3669888320690624</v>
+        <v>0.2353155877867789</v>
       </c>
       <c r="N5" t="n">
-        <v>1.003994845114523</v>
+        <v>1.009463716417968</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3826123064218538</v>
+        <v>0.2453334595292817</v>
       </c>
       <c r="P5" t="n">
-        <v>294.0096954468804</v>
+        <v>95.78731095602147</v>
       </c>
       <c r="Q5" t="n">
-        <v>470.7466900527695</v>
+        <v>150.6367230750905</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_5</t>
+          <t>model_6_6_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9803689742095206</v>
+        <v>0.9920281038620455</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8026091058307947</v>
+        <v>0.8316997963063741</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8313900736537825</v>
+        <v>0.7646798245357544</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7530591010777204</v>
+        <v>0.9726072118454619</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9036966946541495</v>
+        <v>0.9634571194249026</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1312727598534976</v>
+        <v>0.0533081061817076</v>
       </c>
       <c r="H6" t="n">
-        <v>1.31995381821097</v>
+        <v>1.125424237050457</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4135823346431038</v>
+        <v>0.06363509007499879</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2080670349038971</v>
+        <v>0.05342872439656026</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3108246861403883</v>
+        <v>0.05853194305663714</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1787461544814742</v>
+        <v>0.4631185919500057</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3623158288751647</v>
+        <v>0.2308854828301416</v>
       </c>
       <c r="N6" t="n">
-        <v>1.003893757181583</v>
+        <v>1.009110738443377</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3777403638075417</v>
+        <v>0.2407147558330588</v>
       </c>
       <c r="P6" t="n">
-        <v>294.0609559682726</v>
+        <v>95.86333374682698</v>
       </c>
       <c r="Q6" t="n">
-        <v>470.7979505741617</v>
+        <v>150.712745865896</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_0</t>
+          <t>model_6_6_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9752793852478697</v>
+        <v>0.9922777660215126</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8025157102701274</v>
+        <v>0.8312428534917766</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8563448359475475</v>
+        <v>0.7423805324844144</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8682476272637335</v>
+        <v>0.970273060682024</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9282147266211187</v>
+        <v>0.9601536724710401</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1653068646754597</v>
+        <v>0.05163861417176317</v>
       </c>
       <c r="H7" t="n">
-        <v>1.320578354755199</v>
+        <v>1.128479815755699</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3523709393618641</v>
+        <v>0.06966524645872685</v>
       </c>
       <c r="J7" t="n">
-        <v>0.111011686020532</v>
+        <v>0.05798140879318589</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2316912694466946</v>
+        <v>0.06382318353771367</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2171020289017189</v>
+        <v>0.4496020804923849</v>
       </c>
       <c r="M7" t="n">
-        <v>0.406579469077645</v>
+        <v>0.2272413126431089</v>
       </c>
       <c r="N7" t="n">
-        <v>1.004903262430175</v>
+        <v>1.008825410261128</v>
       </c>
       <c r="O7" t="n">
-        <v>0.4238883988118085</v>
+        <v>0.236915445776692</v>
       </c>
       <c r="P7" t="n">
-        <v>293.5999034928606</v>
+        <v>95.92697109939363</v>
       </c>
       <c r="Q7" t="n">
-        <v>470.3368980987497</v>
+        <v>150.7763832184627</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9807260101979277</v>
+        <v>0.9924750677992499</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8022215792349967</v>
+        <v>0.8307680568476002</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8280931596443745</v>
+        <v>0.719514092768998</v>
       </c>
       <c r="E8" t="n">
-        <v>0.735578500344956</v>
+        <v>0.967942455113001</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9001621723229492</v>
+        <v>0.9568043630517576</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1288852585550197</v>
+        <v>0.0503192562755426</v>
       </c>
       <c r="H8" t="n">
-        <v>1.322545210341467</v>
+        <v>1.131654783101544</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4216693163687744</v>
+        <v>0.07584877045157776</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2227958091923148</v>
+        <v>0.06252717762554885</v>
       </c>
       <c r="K8" t="n">
-        <v>0.322232568666394</v>
+        <v>0.06918788344979715</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1753292190696174</v>
+        <v>0.4368073090086004</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3590059310861308</v>
+        <v>0.2243195405566412</v>
       </c>
       <c r="N8" t="n">
-        <v>1.003822940126031</v>
+        <v>1.008599922515143</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3742895568171956</v>
+        <v>0.2338692878036013</v>
       </c>
       <c r="P8" t="n">
-        <v>294.0976654779962</v>
+        <v>95.97873489319396</v>
       </c>
       <c r="Q8" t="n">
-        <v>470.8346600838853</v>
+        <v>150.828147012263</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9809642737964754</v>
+        <v>0.992626108429534</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8017875734866236</v>
+        <v>0.8302796754555942</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8251530690311065</v>
+        <v>0.6962331938836288</v>
       </c>
       <c r="E9" t="n">
-        <v>0.719668868337719</v>
+        <v>0.9656237254710027</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8969682997517402</v>
+        <v>0.9534272308601108</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1272919887744284</v>
+        <v>0.04930924688535453</v>
       </c>
       <c r="H9" t="n">
-        <v>1.325447408779251</v>
+        <v>1.134920591718678</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4288810480043175</v>
+        <v>0.08214437215540407</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2362009193729486</v>
+        <v>0.06704978285629601</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3325409836886331</v>
+        <v>0.07459714801858192</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1723847454638621</v>
+        <v>0.4246940811827726</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3567800285532087</v>
+        <v>0.2220568550739979</v>
       </c>
       <c r="N9" t="n">
-        <v>1.003775681230451</v>
+        <v>1.008427304651961</v>
       </c>
       <c r="O9" t="n">
-        <v>0.3719688930051936</v>
+        <v>0.2315102751155572</v>
       </c>
       <c r="P9" t="n">
-        <v>294.1225434145149</v>
+        <v>96.01928730384778</v>
       </c>
       <c r="Q9" t="n">
-        <v>470.859538020404</v>
+        <v>150.8686994229168</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9811107958901033</v>
+        <v>0.9927364088051565</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8013281294415823</v>
+        <v>0.829781505350892</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8225223486151185</v>
+        <v>0.6726765438450861</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7051948574800273</v>
+        <v>0.9633236692165971</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8940793733133233</v>
+        <v>0.9500384644194937</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1263121948596663</v>
+        <v>0.04857166776568098</v>
       </c>
       <c r="H10" t="n">
-        <v>1.328519713223987</v>
+        <v>1.138251857502684</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4353339272328127</v>
+        <v>0.08851454226134828</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2483964063719433</v>
+        <v>0.0715359662641309</v>
       </c>
       <c r="K10" t="n">
-        <v>0.341865166802378</v>
+        <v>0.08002504754956785</v>
       </c>
       <c r="L10" t="n">
-        <v>0.169838385861331</v>
+        <v>0.4132261052616358</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3554042696137264</v>
+        <v>0.2203898086701855</v>
       </c>
       <c r="N10" t="n">
-        <v>1.003746618997004</v>
+        <v>1.008301247079821</v>
       </c>
       <c r="O10" t="n">
-        <v>0.3705345651594439</v>
+        <v>0.2297722590950727</v>
       </c>
       <c r="P10" t="n">
-        <v>294.1379973991569</v>
+        <v>96.04942977170364</v>
       </c>
       <c r="Q10" t="n">
-        <v>470.874992005046</v>
+        <v>150.8988418907727</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9811872733338912</v>
+        <v>0.9928109954114471</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8008588612253983</v>
+        <v>0.8292769584366876</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8201627097609777</v>
+        <v>0.6489709029960684</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6920376540362925</v>
+        <v>0.9610493337755621</v>
       </c>
       <c r="F11" t="n">
-        <v>0.891465333091392</v>
+        <v>0.9466525475486159</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1258007898409106</v>
+        <v>0.04807290678597569</v>
       </c>
       <c r="H11" t="n">
-        <v>1.331657711946391</v>
+        <v>1.141625765041194</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4411218720315443</v>
+        <v>0.0949250023408412</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2594823800608415</v>
+        <v>0.07597198207890855</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3503021381879626</v>
+        <v>0.08544838283025116</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1676351101105946</v>
+        <v>0.4023608293420959</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3546840704639985</v>
+        <v>0.219255346082999</v>
       </c>
       <c r="N11" t="n">
-        <v>1.003731449917245</v>
+        <v>1.008216005244061</v>
       </c>
       <c r="O11" t="n">
-        <v>0.3697837056408943</v>
+        <v>0.2285895000868884</v>
       </c>
       <c r="P11" t="n">
-        <v>294.1461113123818</v>
+        <v>96.07007305809708</v>
       </c>
       <c r="Q11" t="n">
-        <v>470.8831059182709</v>
+        <v>150.9194851771661</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9812107896343636</v>
+        <v>0.9928542541889137</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8003914060094122</v>
+        <v>0.828768968929084</v>
       </c>
       <c r="D12" t="n">
-        <v>0.818041404077153</v>
+        <v>0.6252258837086081</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6800813191029575</v>
+        <v>0.9588058815238224</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8890986111704166</v>
+        <v>0.9432821214595563</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1256435362313693</v>
+        <v>0.04778363514186812</v>
       </c>
       <c r="H12" t="n">
-        <v>1.334783587128123</v>
+        <v>1.145022693217616</v>
       </c>
       <c r="I12" t="n">
-        <v>0.446325210744868</v>
+        <v>0.1013461111055663</v>
       </c>
       <c r="J12" t="n">
-        <v>0.269556528040192</v>
+        <v>0.08034776125767708</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3579408749439533</v>
+        <v>0.0908469060122436</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1657166513951228</v>
+        <v>0.3920716745138876</v>
       </c>
       <c r="M12" t="n">
-        <v>0.3544623199034974</v>
+        <v>0.2185946823275171</v>
       </c>
       <c r="N12" t="n">
-        <v>1.003726785527068</v>
+        <v>1.008166566641241</v>
       </c>
       <c r="O12" t="n">
-        <v>0.3695525146999457</v>
+        <v>0.2279007105075731</v>
       </c>
       <c r="P12" t="n">
-        <v>294.1486129179261</v>
+        <v>96.08214411830487</v>
       </c>
       <c r="Q12" t="n">
-        <v>470.8856075238152</v>
+        <v>150.9315562373739</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9811951707947975</v>
+        <v>0.9928702999005952</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7999340642860204</v>
+        <v>0.828260166230316</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8161337928438952</v>
+        <v>0.6015429845385225</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6692237575881854</v>
+        <v>0.9565985648871809</v>
       </c>
       <c r="F13" t="n">
-        <v>0.886956517528161</v>
+        <v>0.9399389417902241</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1257479794834665</v>
+        <v>0.04767633739397009</v>
       </c>
       <c r="H13" t="n">
-        <v>1.337841833338309</v>
+        <v>1.148425059207099</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4510043795490947</v>
+        <v>0.1077504213987757</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2787048734156428</v>
+        <v>0.08465305911818428</v>
       </c>
       <c r="K13" t="n">
-        <v>0.3648546104761483</v>
+        <v>0.09620178770065678</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1640491737345146</v>
+        <v>0.3823274285908796</v>
       </c>
       <c r="M13" t="n">
-        <v>0.3546096156105563</v>
+        <v>0.2183491181433305</v>
       </c>
       <c r="N13" t="n">
-        <v>1.003729883478718</v>
+        <v>1.008148228685034</v>
       </c>
       <c r="O13" t="n">
-        <v>0.3697060810901983</v>
+        <v>0.2276446921476777</v>
       </c>
       <c r="P13" t="n">
-        <v>294.1469510757146</v>
+        <v>96.08664015115441</v>
       </c>
       <c r="Q13" t="n">
-        <v>470.8839456816037</v>
+        <v>150.9360522702235</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9811510226706387</v>
+        <v>0.9928626776392312</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7994928134894189</v>
+        <v>0.8277528690042569</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8144152093759804</v>
+        <v>0.5780054965280652</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6593690622496271</v>
+        <v>0.9544312039962757</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8850171440982048</v>
+        <v>0.9366325452550686</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1260431981929994</v>
+        <v>0.04772730749080831</v>
       </c>
       <c r="H14" t="n">
-        <v>1.340792479446956</v>
+        <v>1.151817358093644</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4552198832168903</v>
+        <v>0.1141154097247012</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2870082255453377</v>
+        <v>0.08888042462237356</v>
       </c>
       <c r="K14" t="n">
-        <v>0.371114054381114</v>
+        <v>0.1014977526238562</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1625944895896728</v>
+        <v>0.3730945035295158</v>
       </c>
       <c r="M14" t="n">
-        <v>0.3550256303325147</v>
+        <v>0.2184658039392168</v>
       </c>
       <c r="N14" t="n">
-        <v>1.003738640131444</v>
+        <v>1.008156939840879</v>
       </c>
       <c r="O14" t="n">
-        <v>0.3701398064201397</v>
+        <v>0.2277663454994678</v>
       </c>
       <c r="P14" t="n">
-        <v>294.1422611759725</v>
+        <v>96.08450312162061</v>
       </c>
       <c r="Q14" t="n">
-        <v>470.8792557818616</v>
+        <v>150.9339152406897</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.981086787751506</v>
+        <v>0.992834661847353</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7990716585599366</v>
+        <v>0.8272490570194665</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8128666763710866</v>
+        <v>0.5546935040205567</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6504282309474193</v>
+        <v>0.9523078926389056</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8832616789219572</v>
+        <v>0.9333717301012521</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1264727373930137</v>
+        <v>0.04791464922009842</v>
       </c>
       <c r="H15" t="n">
-        <v>1.343608744399645</v>
+        <v>1.155186351155779</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4590182710657815</v>
+        <v>0.1204194197404866</v>
       </c>
       <c r="J15" t="n">
-        <v>0.294541575698128</v>
+        <v>0.09302187297297598</v>
       </c>
       <c r="K15" t="n">
-        <v>0.3767799233819548</v>
+        <v>0.106720708337738</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1613202356301745</v>
+        <v>0.364349635437026</v>
       </c>
       <c r="M15" t="n">
-        <v>0.3556300569313759</v>
+        <v>0.2188941507215266</v>
       </c>
       <c r="N15" t="n">
-        <v>1.00375138094185</v>
+        <v>1.008188957888739</v>
       </c>
       <c r="O15" t="n">
-        <v>0.37076996471065</v>
+        <v>0.2282129278911007</v>
       </c>
       <c r="P15" t="n">
-        <v>294.1354570174419</v>
+        <v>96.07666798418376</v>
       </c>
       <c r="Q15" t="n">
-        <v>470.872451623331</v>
+        <v>150.9260801032528</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9810090898515537</v>
+        <v>0.9927891080969831</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7986730836294036</v>
+        <v>0.8267504197363189</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8114707941288732</v>
+        <v>0.5316733500217539</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6423229835735318</v>
+        <v>0.9502309089788626</v>
       </c>
       <c r="F16" t="n">
-        <v>0.881673297476312</v>
+        <v>0.9301638595888757</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1269923036077611</v>
+        <v>0.04821926735857881</v>
       </c>
       <c r="H16" t="n">
-        <v>1.346274016795387</v>
+        <v>1.1585207409642</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4624422227223167</v>
+        <v>0.1266445110245816</v>
       </c>
       <c r="J16" t="n">
-        <v>0.301370880991854</v>
+        <v>0.09707296068710519</v>
       </c>
       <c r="K16" t="n">
-        <v>0.381906519634709</v>
+        <v>0.1118588608645378</v>
       </c>
       <c r="L16" t="n">
-        <v>0.160207166760323</v>
+        <v>0.3560601622244653</v>
       </c>
       <c r="M16" t="n">
-        <v>0.3563597951618014</v>
+        <v>0.2195888598234865</v>
       </c>
       <c r="N16" t="n">
-        <v>1.00376679209556</v>
+        <v>1.008241019317734</v>
       </c>
       <c r="O16" t="n">
-        <v>0.3715307694083111</v>
+        <v>0.2289372121977771</v>
       </c>
       <c r="P16" t="n">
-        <v>294.1272575917472</v>
+        <v>96.06399320013915</v>
       </c>
       <c r="Q16" t="n">
-        <v>470.8642521976363</v>
+        <v>150.9134053192082</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9809229613649716</v>
+        <v>0.9927286274141743</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7982985433745238</v>
+        <v>0.8262584832199791</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8102123053711635</v>
+        <v>0.5089986286624125</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6349783138953352</v>
+        <v>0.948203046390266</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8802363963826232</v>
+        <v>0.9270151923012604</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1275682451941207</v>
+        <v>0.04862370196300815</v>
       </c>
       <c r="H17" t="n">
-        <v>1.348778569204369</v>
+        <v>1.161810322714124</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4655291626778384</v>
+        <v>0.1327761906958234</v>
       </c>
       <c r="J17" t="n">
-        <v>0.3075593400480911</v>
+        <v>0.1010282393812267</v>
       </c>
       <c r="K17" t="n">
-        <v>0.3865442039785293</v>
+        <v>0.1169021856239053</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1592262006391834</v>
+        <v>0.3482045420441026</v>
       </c>
       <c r="M17" t="n">
-        <v>0.3571669710291263</v>
+        <v>0.2205078274415857</v>
       </c>
       <c r="N17" t="n">
-        <v>1.003783875431741</v>
+        <v>1.008310140098087</v>
       </c>
       <c r="O17" t="n">
-        <v>0.3723723084233923</v>
+        <v>0.229895302169904</v>
       </c>
       <c r="P17" t="n">
-        <v>294.1182076023156</v>
+        <v>96.04728834449601</v>
       </c>
       <c r="Q17" t="n">
-        <v>470.8552022082047</v>
+        <v>150.896700463565</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9808322738263697</v>
+        <v>0.992655500518972</v>
       </c>
       <c r="C18" t="n">
-        <v>0.797948691986359</v>
+        <v>0.8257745316785519</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8090776284653971</v>
+        <v>0.4867205631178682</v>
       </c>
       <c r="E18" t="n">
-        <v>0.628325467474081</v>
+        <v>0.9462267721131583</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8789368355074225</v>
+        <v>0.9239312976364131</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1281746731823291</v>
+        <v>0.04911270184794479</v>
       </c>
       <c r="H18" t="n">
-        <v>1.351118027047944</v>
+        <v>1.16504650890004</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4683124052420327</v>
+        <v>0.1388006070248823</v>
       </c>
       <c r="J18" t="n">
-        <v>0.3131648838627552</v>
+        <v>0.1048828967855006</v>
       </c>
       <c r="K18" t="n">
-        <v>0.3907386145411149</v>
+        <v>0.1218417619264509</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1583649472586307</v>
+        <v>0.3407627181460924</v>
       </c>
       <c r="M18" t="n">
-        <v>0.3580149063688955</v>
+        <v>0.2216138575268812</v>
       </c>
       <c r="N18" t="n">
-        <v>1.003801863042703</v>
+        <v>1.008393713692603</v>
       </c>
       <c r="O18" t="n">
-        <v>0.3732563421260437</v>
+        <v>0.2310484182457284</v>
       </c>
       <c r="P18" t="n">
-        <v>294.1087226221853</v>
+        <v>96.02727516839242</v>
       </c>
       <c r="Q18" t="n">
-        <v>470.8457172280744</v>
+        <v>150.8766872874614</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9807400001697034</v>
+        <v>0.9925717893967938</v>
       </c>
       <c r="C19" t="n">
-        <v>0.797623389404205</v>
+        <v>0.8252995876020676</v>
       </c>
       <c r="D19" t="n">
-        <v>0.808054700443793</v>
+        <v>0.4648805092323581</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6223052915057151</v>
+        <v>0.9443027618568591</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8777623298748516</v>
+        <v>0.9209163062593961</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1287917075493377</v>
+        <v>0.0496724785074044</v>
       </c>
       <c r="H19" t="n">
-        <v>1.353293326912689</v>
+        <v>1.168222462126406</v>
       </c>
       <c r="I19" t="n">
-        <v>0.4708215396003397</v>
+        <v>0.1447065765980625</v>
       </c>
       <c r="J19" t="n">
-        <v>0.3182373533030313</v>
+        <v>0.1086356149513194</v>
       </c>
       <c r="K19" t="n">
-        <v>0.3945294018178647</v>
+        <v>0.1266709735490309</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1576040670293861</v>
+        <v>0.3337077308349381</v>
       </c>
       <c r="M19" t="n">
-        <v>0.3588756157073614</v>
+        <v>0.2228732341655328</v>
       </c>
       <c r="N19" t="n">
-        <v>1.003820165255596</v>
+        <v>1.008489383546521</v>
       </c>
       <c r="O19" t="n">
-        <v>0.374153693642962</v>
+        <v>0.2323614091551564</v>
       </c>
       <c r="P19" t="n">
-        <v>294.0991176995309</v>
+        <v>96.00460850324626</v>
       </c>
       <c r="Q19" t="n">
-        <v>470.83611230542</v>
+        <v>150.8540206223153</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9806481915449801</v>
+        <v>0.9924793102903495</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7973221665992578</v>
+        <v>0.8248345962683183</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8071314533410471</v>
+        <v>0.4435166506560597</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6168576028534929</v>
+        <v>0.9424327919838417</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8767004098555801</v>
+        <v>0.9179743213498601</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1294056322456026</v>
+        <v>0.0502908867180247</v>
       </c>
       <c r="H20" t="n">
-        <v>1.355307605196374</v>
+        <v>1.171331861316276</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4730861671965944</v>
+        <v>0.1504837738238008</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3228274573720387</v>
+        <v>0.1122829291426195</v>
       </c>
       <c r="K20" t="n">
-        <v>0.3979568122843165</v>
+        <v>0.1313832482927958</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1569319640890043</v>
+        <v>0.3270206955675878</v>
       </c>
       <c r="M20" t="n">
-        <v>0.3597299434931747</v>
+        <v>0.2242562969417463</v>
       </c>
       <c r="N20" t="n">
-        <v>1.003838375230748</v>
+        <v>1.008595073953886</v>
       </c>
       <c r="O20" t="n">
-        <v>0.3750443919313196</v>
+        <v>0.233803351777088</v>
       </c>
       <c r="P20" t="n">
-        <v>294.0896067440157</v>
+        <v>95.97986279371872</v>
       </c>
       <c r="Q20" t="n">
-        <v>470.8266013499048</v>
+        <v>150.8292749127878</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9805585181555545</v>
+        <v>0.9923797417928153</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7970442184352898</v>
+        <v>0.8243802643322129</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8062993300301569</v>
+        <v>0.42265732282811</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6119307774995384</v>
+        <v>0.940617703243672</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8757411273406123</v>
+        <v>0.9151083334733</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1300052786135995</v>
+        <v>0.05095670171950654</v>
       </c>
       <c r="H21" t="n">
-        <v>1.357166245848661</v>
+        <v>1.174369981065019</v>
       </c>
       <c r="I21" t="n">
-        <v>0.4751272777592209</v>
+        <v>0.1561245362557377</v>
       </c>
       <c r="J21" t="n">
-        <v>0.3269786933453445</v>
+        <v>0.1158231995052681</v>
       </c>
       <c r="K21" t="n">
-        <v>0.4010529540581012</v>
+        <v>0.135973796069868</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1563410774963847</v>
+        <v>0.320680910462489</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3605624475920912</v>
+        <v>0.2257359114529776</v>
       </c>
       <c r="N21" t="n">
-        <v>1.003856161688155</v>
+        <v>1.008708866522497</v>
       </c>
       <c r="O21" t="n">
-        <v>0.3759123374532481</v>
+        <v>0.2353459565412867</v>
       </c>
       <c r="P21" t="n">
-        <v>294.0803604492618</v>
+        <v>95.95355798548493</v>
       </c>
       <c r="Q21" t="n">
-        <v>470.8173550551509</v>
+        <v>150.802970104554</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9804720896782295</v>
+        <v>0.9922744098982965</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7967885724485735</v>
+        <v>0.8239371512875389</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8055489866654448</v>
+        <v>0.4023205708084356</v>
       </c>
       <c r="E22" t="n">
-        <v>0.607477749732076</v>
+        <v>0.9388573738644272</v>
       </c>
       <c r="F22" t="n">
-        <v>0.874874742180468</v>
+        <v>0.9123200092354855</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1305832262394384</v>
+        <v>0.05166105658316269</v>
       </c>
       <c r="H22" t="n">
-        <v>1.358875751738975</v>
+        <v>1.177333080035102</v>
       </c>
       <c r="I22" t="n">
-        <v>0.4769677907544306</v>
+        <v>0.1616239841634736</v>
       </c>
       <c r="J22" t="n">
-        <v>0.3307307177688574</v>
+        <v>0.1192566635513607</v>
       </c>
       <c r="K22" t="n">
-        <v>0.4038492640550572</v>
+        <v>0.1404399474225454</v>
       </c>
       <c r="L22" t="n">
-        <v>0.1558133046352057</v>
+        <v>0.3146721240418449</v>
       </c>
       <c r="M22" t="n">
-        <v>0.3613630117201239</v>
+        <v>0.2272906874096752</v>
       </c>
       <c r="N22" t="n">
-        <v>1.003873304526632</v>
+        <v>1.008829245830518</v>
       </c>
       <c r="O22" t="n">
-        <v>0.3767469832536074</v>
+        <v>0.2369669225292908</v>
       </c>
       <c r="P22" t="n">
-        <v>294.0714890130673</v>
+        <v>95.9261020777757</v>
       </c>
       <c r="Q22" t="n">
-        <v>470.8084836189564</v>
+        <v>150.7755141968447</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9803896630902118</v>
+        <v>0.9921646921676981</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7965539761451047</v>
+        <v>0.8235058321774347</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8048730370750011</v>
+        <v>0.3825327707431294</v>
       </c>
       <c r="E23" t="n">
-        <v>0.603452932290452</v>
+        <v>0.9371529897303332</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8740925089451915</v>
+        <v>0.9096116603894071</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1311344132130525</v>
+        <v>0.05239473955287786</v>
       </c>
       <c r="H23" t="n">
-        <v>1.360444498300487</v>
+        <v>1.180217312910411</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4786258236815235</v>
+        <v>0.1669749849310773</v>
       </c>
       <c r="J23" t="n">
-        <v>0.3341219414777002</v>
+        <v>0.1225810082530624</v>
       </c>
       <c r="K23" t="n">
-        <v>0.4063739686741794</v>
+        <v>0.1447779995394384</v>
       </c>
       <c r="L23" t="n">
-        <v>0.155343339135267</v>
+        <v>0.308973190725008</v>
       </c>
       <c r="M23" t="n">
-        <v>0.3621248585958336</v>
+        <v>0.2288989723718258</v>
       </c>
       <c r="N23" t="n">
-        <v>1.003889653601941</v>
+        <v>1.008954637522631</v>
       </c>
       <c r="O23" t="n">
-        <v>0.3775412635280565</v>
+        <v>0.238643675511889</v>
       </c>
       <c r="P23" t="n">
-        <v>294.0630648535084</v>
+        <v>95.89789816581366</v>
       </c>
       <c r="Q23" t="n">
-        <v>470.8000594593975</v>
+        <v>150.7473102848827</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9803116766187496</v>
+        <v>0.9920516352829525</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7963391900217852</v>
+        <v>0.8230865725356094</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8042629202630205</v>
+        <v>0.3633019285271044</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5998181104855131</v>
+        <v>0.9355039143528782</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8733862596093462</v>
+        <v>0.9069841822184863</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1316559091068144</v>
+        <v>0.05315075146175126</v>
       </c>
       <c r="H24" t="n">
-        <v>1.361880774096124</v>
+        <v>1.18302090406581</v>
       </c>
       <c r="I24" t="n">
-        <v>0.4801223757586878</v>
+        <v>0.172175373610971</v>
       </c>
       <c r="J24" t="n">
-        <v>0.3371845633384706</v>
+        <v>0.125797475060097</v>
       </c>
       <c r="K24" t="n">
-        <v>0.4086534307067921</v>
+        <v>0.1489865184154161</v>
       </c>
       <c r="L24" t="n">
-        <v>0.1549274151306961</v>
+        <v>0.3035685474377915</v>
       </c>
       <c r="M24" t="n">
-        <v>0.3628441939825059</v>
+        <v>0.2305444674281976</v>
       </c>
       <c r="N24" t="n">
-        <v>1.003905121992975</v>
+        <v>1.009083845390911</v>
       </c>
       <c r="O24" t="n">
-        <v>0.3782912225113689</v>
+        <v>0.2403592226994549</v>
       </c>
       <c r="P24" t="n">
-        <v>294.0551270181464</v>
+        <v>95.86924607157033</v>
       </c>
       <c r="Q24" t="n">
-        <v>470.7921216240355</v>
+        <v>150.7186581906394</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9802384339056703</v>
+        <v>0.9919362056279289</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7961428684217061</v>
+        <v>0.8226796359327808</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8037131008651965</v>
+        <v>0.3446362426602545</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5965360840719425</v>
+        <v>0.9339098528322753</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8727489252182283</v>
+        <v>0.9044379275483321</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1321456834664273</v>
+        <v>0.05392263009639778</v>
       </c>
       <c r="H25" t="n">
-        <v>1.363193577539831</v>
+        <v>1.185742091002695</v>
       </c>
       <c r="I25" t="n">
-        <v>0.4814710246497214</v>
+        <v>0.1772229331714945</v>
       </c>
       <c r="J25" t="n">
-        <v>0.3399499274694356</v>
+        <v>0.1289066391647133</v>
       </c>
       <c r="K25" t="n">
-        <v>0.4107104656276006</v>
+        <v>0.1530649389180057</v>
       </c>
       <c r="L25" t="n">
-        <v>0.1545576230253758</v>
+        <v>0.2984420921502373</v>
       </c>
       <c r="M25" t="n">
-        <v>0.3635184774759425</v>
+        <v>0.232212467573121</v>
       </c>
       <c r="N25" t="n">
-        <v>1.003919649473255</v>
+        <v>1.009215764996653</v>
       </c>
       <c r="O25" t="n">
-        <v>0.3789942116490803</v>
+        <v>0.242098233063784</v>
       </c>
       <c r="P25" t="n">
-        <v>294.0477006047183</v>
+        <v>95.840410071631</v>
       </c>
       <c r="Q25" t="n">
-        <v>470.7846952106074</v>
+        <v>150.6898221907</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9801700594217502</v>
+        <v>0.9918193270164577</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7959638641602916</v>
+        <v>0.8222852457957326</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8032181321907239</v>
+        <v>0.3265464992356375</v>
       </c>
       <c r="E26" t="n">
-        <v>0.593573479083906</v>
+        <v>0.9323711462806635</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8721741328943796</v>
+        <v>0.9019741216083618</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1326029039552371</v>
+        <v>0.05470419790948262</v>
       </c>
       <c r="H26" t="n">
-        <v>1.364390579860148</v>
+        <v>1.188379379665137</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4826851305116933</v>
+        <v>0.1821147468461533</v>
       </c>
       <c r="J26" t="n">
-        <v>0.3424461540489228</v>
+        <v>0.1319078352390032</v>
       </c>
       <c r="K26" t="n">
-        <v>0.412565642280308</v>
+        <v>0.1570112985566387</v>
       </c>
       <c r="L26" t="n">
-        <v>0.1542296016499381</v>
+        <v>0.2935791299741098</v>
       </c>
       <c r="M26" t="n">
-        <v>0.3641468164837324</v>
+        <v>0.2338892855807692</v>
       </c>
       <c r="N26" t="n">
-        <v>1.003933211354364</v>
+        <v>1.00934934055262</v>
       </c>
       <c r="O26" t="n">
-        <v>0.3796493003492729</v>
+        <v>0.2438464366855096</v>
       </c>
       <c r="P26" t="n">
-        <v>294.0407926027106</v>
+        <v>95.81162965653407</v>
       </c>
       <c r="Q26" t="n">
-        <v>470.7777872085996</v>
+        <v>150.6610417756031</v>
       </c>
     </row>
   </sheetData>
